--- a/mbs-perturbation/chatty/multinomialNB/smote/chatty-multinomialNB-smote-results.xlsx
+++ b/mbs-perturbation/chatty/multinomialNB/smote/chatty-multinomialNB-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5443425076452599</v>
+        <v>0.560126582278481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5613683418031244</v>
+        <v>0.5934016164994426</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5415238882980818</v>
+        <v>0.5631878226966698</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5613683418031243</v>
+        <v>0.5934016164994427</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8616071428571429</v>
+        <v>0.6210045662100456</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8524656502917373</v>
+        <v>0.6289831846897065</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8524605595090177</v>
+        <v>0.6286547668851392</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8524656502917373</v>
+        <v>0.6289831846897065</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7873303167420814</v>
+        <v>0.851063829787234</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7760869565217391</v>
+        <v>0.8169825343738387</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7760012102931653</v>
+        <v>0.8164828003537681</v>
       </c>
       <c r="E4" t="n">
-        <v>0.7760869565217391</v>
+        <v>0.8169825343738388</v>
       </c>
     </row>
     <row r="5">
@@ -524,16 +524,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7011494252873564</v>
+        <v>0.5960264900662252</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7282608695652173</v>
+        <v>0.6380063173541435</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7270211119498289</v>
+        <v>0.6185661764705883</v>
       </c>
       <c r="E5" t="n">
-        <v>0.7282608695652173</v>
+        <v>0.6380063173541435</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9504950495049505</v>
+        <v>0.7981651376146789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8956521739130434</v>
+        <v>0.8140096618357489</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8952641165755919</v>
+        <v>0.8138782659465771</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8956521739130435</v>
+        <v>0.8140096618357487</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7689848884073582</v>
+        <v>0.6852773211913329</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7627667984189722</v>
+        <v>0.698276662950576</v>
       </c>
       <c r="D7" t="n">
-        <v>0.758454177325137</v>
+        <v>0.6881539664705485</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7627667984189723</v>
+        <v>0.698276662950576</v>
       </c>
     </row>
   </sheetData>
